--- a/public/file/guru.xlsx
+++ b/public/file/guru.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="116">
   <si>
     <t>itemId</t>
   </si>
@@ -40,31 +40,328 @@
     <t>itemImage</t>
   </si>
   <si>
-    <t>bat</t>
-  </si>
-  <si>
-    <t>sports</t>
-  </si>
-  <si>
-    <t>cricket</t>
-  </si>
-  <si>
-    <t>adidas</t>
-  </si>
-  <si>
-    <t>adi</t>
-  </si>
-  <si>
-    <t>ball</t>
-  </si>
-  <si>
-    <t>stumps</t>
-  </si>
-  <si>
-    <t>pad</t>
-  </si>
-  <si>
-    <t>cloves</t>
+    <t>Computers</t>
+  </si>
+  <si>
+    <t>Laptops</t>
+  </si>
+  <si>
+    <t>Desktops</t>
+  </si>
+  <si>
+    <t>Asus</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/418f0S-2VpL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41FGDfh2OIL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/51zQKvvMAWL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/31S8EaBrfxL._SL150_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41KEWWSMU5L._SL150_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41FIRANLqKL._SL150_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41hDVnzvxmL._SL150_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41iAcg3F1HL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41JUAQnJs-L._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>Dell New lat</t>
+  </si>
+  <si>
+    <t>Dell 360</t>
+  </si>
+  <si>
+    <t>Dell Ypga</t>
+  </si>
+  <si>
+    <t>Lenova X300</t>
+  </si>
+  <si>
+    <t>Asus ET2040iUK</t>
+  </si>
+  <si>
+    <t>Asus ET2030iUK</t>
+  </si>
+  <si>
+    <t>HP envy 360</t>
+  </si>
+  <si>
+    <t>HP all in one</t>
+  </si>
+  <si>
+    <t>HP 3210hpki</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>Headphones</t>
+  </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>Beats</t>
+  </si>
+  <si>
+    <t>Bose</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>JBL</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/414yCqDLZiL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41bcZ7dqeVL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>Beats Power beats 2</t>
+  </si>
+  <si>
+    <t>Beats by Dr.Dre</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/413RqwTHQXL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/31pYQDLKUIL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>Bose sound true ultra</t>
+  </si>
+  <si>
+    <t>Boses sound sport</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41pjURU+WaL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>Sony MDR-AS200</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/512JEA3rtML._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/319EoRAjd7L._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>JBL Flip-2</t>
+  </si>
+  <si>
+    <t>JBL GO</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41raGZcY53L._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>Bose Sound link</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/51jyo2Xm6EL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>Bose SoundTouch</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/51a7EyvvhNL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>Sony SRS-X11</t>
+  </si>
+  <si>
+    <t>Wearable Tech</t>
+  </si>
+  <si>
+    <t>Fitbit</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41bhw+Hx+CL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>Fitbit Blaze</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/51LV1XdZKPL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>Fitbit HR</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41pXbnxiiJL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>Fitbit Surge</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41oVvxyGXtL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>Fitbit Alta</t>
+  </si>
+  <si>
+    <t>Apple Watch</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41I2Gf6knUL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/31aktkh55+L._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/31j+2rDmCtL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>Apple Watch sport</t>
+  </si>
+  <si>
+    <t>Apple Watch space</t>
+  </si>
+  <si>
+    <t>Apple watch gold</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41iAFlOeBGL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41KQ4lwhT2L._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41FbbtKVIDL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>Tracker</t>
+  </si>
+  <si>
+    <t>Mi band 2</t>
+  </si>
+  <si>
+    <t>Bingo M2</t>
+  </si>
+  <si>
+    <t>Mi band smart</t>
+  </si>
+  <si>
+    <t>Mi</t>
+  </si>
+  <si>
+    <t>Cell Phones</t>
+  </si>
+  <si>
+    <t>Smart Phones</t>
+  </si>
+  <si>
+    <t>Android Phones</t>
+  </si>
+  <si>
+    <t>Windows Phones</t>
+  </si>
+  <si>
+    <t>Moto</t>
+  </si>
+  <si>
+    <t>One Plus</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41NQKIxOPzL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/31C8BSE5HRL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>Xperia XA Dual</t>
+  </si>
+  <si>
+    <t>Xperia XZ Dual</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41ti5AikmbL._AC_SS200_.jpg</t>
+  </si>
+  <si>
+    <t>Moto G Plus</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/513urfEe5LL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/414KNwJQbEL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>One Plus 3</t>
+  </si>
+  <si>
+    <t>One Plus 2</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41Lnwzh+EgL._AC_US160_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/31vpD5IiJXL._AC_US160_.jpg</t>
+  </si>
+  <si>
+    <t>Samsung Edge</t>
+  </si>
+  <si>
+    <t>Samsung GalaxyS6</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/41EWGtCprPL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/51tLrm0bZ1L._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/51AES0t-xtL._AC_US160_FMwebp_QL70_.jpg</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nokia </t>
+  </si>
+  <si>
+    <t>Microsoft Lumia</t>
+  </si>
+  <si>
+    <t>Nokia Lumia</t>
+  </si>
+  <si>
+    <t>Microsoft Lumia 640</t>
   </si>
 </sst>
 </file>
@@ -406,23 +703,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="83.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,93 +745,93 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1236</v>
+        <v>3456</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>600</v>
+        <v>23000</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1246</v>
+        <v>3457</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
       <c r="F3">
-        <v>300</v>
+        <v>32000</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1256</v>
+        <v>3458</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G4">
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1266</v>
+        <v>3458</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -543,24 +840,24 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <v>500</v>
+        <v>18000</v>
       </c>
       <c r="G5">
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1276</v>
+        <v>3459</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -569,16 +866,901 @@
         <v>11</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G6">
         <v>50</v>
       </c>
       <c r="H6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3460</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
+      </c>
+      <c r="F7">
+        <v>15000</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3461</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>34000</v>
+      </c>
+      <c r="G8">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3462</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>32000</v>
+      </c>
+      <c r="G9">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3463</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>50000</v>
+      </c>
+      <c r="G10">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11">
+        <v>10000</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>12000</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13">
+        <v>23000</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4003</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14">
+        <v>20000</v>
+      </c>
+      <c r="G14">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4004</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15">
+        <v>1200</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4005</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <v>10000</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4006</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17">
+        <v>14000</v>
+      </c>
+      <c r="G17">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4007</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18">
+        <v>10000</v>
+      </c>
+      <c r="G18">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19">
+        <v>24000</v>
+      </c>
+      <c r="G19">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4009</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20">
+        <v>30000</v>
+      </c>
+      <c r="G20">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5000</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21">
+        <v>15000</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>5001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22">
+        <v>9000</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>5002</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23">
+        <v>19000</v>
+      </c>
+      <c r="G23">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5003</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24">
+        <v>10000</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5004</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25">
+        <v>34000</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5005</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26">
+        <v>28000</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>5006</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27">
+        <v>35000</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>5007</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28">
+        <v>2000</v>
+      </c>
+      <c r="G28">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>5008</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29">
+        <v>1000</v>
+      </c>
+      <c r="G29">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5009</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30">
+        <v>950</v>
+      </c>
+      <c r="G30">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>6001</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31">
+        <v>23000</v>
+      </c>
+      <c r="G31">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>6002</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32">
+        <v>13000</v>
+      </c>
+      <c r="G32">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>6003</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33">
+        <v>14000</v>
+      </c>
+      <c r="G33">
+        <v>34</v>
+      </c>
+      <c r="H33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>6004</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34">
+        <v>23000</v>
+      </c>
+      <c r="G34">
+        <v>32</v>
+      </c>
+      <c r="H34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>6005</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35">
+        <v>22000</v>
+      </c>
+      <c r="G35">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6006</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36">
+        <v>20000</v>
+      </c>
+      <c r="G36">
+        <v>65</v>
+      </c>
+      <c r="H36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6007</v>
+      </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37">
+        <v>24000</v>
+      </c>
+      <c r="G37">
+        <v>33</v>
+      </c>
+      <c r="H37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>6008</v>
+      </c>
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38">
+        <v>8000</v>
+      </c>
+      <c r="G38">
+        <v>66</v>
+      </c>
+      <c r="H38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>6009</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39">
+        <v>10000</v>
+      </c>
+      <c r="G39">
+        <v>42</v>
+      </c>
+      <c r="H39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>6010</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40">
+        <v>6000</v>
+      </c>
+      <c r="G40">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>